--- a/data/trans_dic/P16B09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,56; 100,0</t>
+          <t>59,73; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,27; 100,0</t>
+          <t>81,12; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,46; 100,0</t>
+          <t>73,36; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,72; 100,0</t>
+          <t>91,73; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,36; 100,0</t>
+          <t>93,69; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1145,12 +1146,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,48; 100,0</t>
+          <t>90,47; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,72; 100,0</t>
+          <t>80,21; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1161,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,58; 100,0</t>
+          <t>91,39; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>83,22; 100,0</t>
+          <t>84,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91,1; 100,0</t>
+          <t>91,3; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,0; 100,0</t>
+          <t>93,83; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,09; 100,0</t>
+          <t>91,18; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>93,0; 100,0</t>
+          <t>93,83; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,75; 99,15</t>
+          <t>91,57; 99,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,68; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,87; 99,51</t>
+          <t>95,58; 99,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,17 +1376,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 99,31</t>
+          <t>95,59; 99,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>96,51; 99,64</t>
+          <t>96,78; 99,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>94,61; 100,0</t>
+          <t>95,03; 100,0</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el reuma fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10635</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9439</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2952</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10794</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21430</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13854</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6842; 11454</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7480; 9439</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1641; 2952</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8951; 10794</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2815; 4416</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2681; 4205</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18049; 22249</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11844; 13854</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5493; 7157</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7296</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8541</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8254</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15550</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4395</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3112; 4482</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5600; 7296</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6556; 8541</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6541; 8254</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2802; 4395</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11134; 13023</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13710; 15550</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2802; 4395</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14019</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13809</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11397</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10370</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6231</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25417</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24179</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10559</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10903; 14863</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11643; 13809</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2760; 4329</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9451; 11397</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8427; 10370</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4326; 6231</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22147; 26261</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21991; 24179</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8581; 10559</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>52560</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27020</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23877</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28338</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22900</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14014</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>80898</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49920</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37891</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>49194; 53627</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25041; 27020</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21984; 23877</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26537; 28338</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21006; 22900</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12124; 14014</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76795; 81965</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47931; 49920</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35936; 37891</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9980</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11899</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14037</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29184</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51500</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40024</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39165</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>63399</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>54061</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8414; 9980</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10032; 11899</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12473; 14037</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27198; 29184</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47497; 52499</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33508; 41777</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37247; 39165</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>58850; 64398</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>47298; 55814</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>81026</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>105898</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>59596</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>81912</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>105898</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>59596</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>202; 886</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>76031; 83277</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>101410; 108080</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57445; 59596</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>76741; 84163</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>101410; 108080</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>57445; 59596</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>92562</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>69463</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>169281</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>203337</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>128464</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>261843</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>272799</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>173659</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>87256; 94476</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>67352; 69463</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>43357; 45195</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>163263; 171532</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>197384; 205503</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>120416; 130217</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>255048; 265014</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>267088; 274978</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>166694; 175412</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
